--- a/03.COMP 513 - Computational Mathematics and Models I/07.COMP_513_Assignment_7_ex2007.xlsx
+++ b/03.COMP 513 - Computational Mathematics and Models I/07.COMP_513_Assignment_7_ex2007.xlsx
@@ -40,7 +40,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -156,10 +156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,13 +165,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -310,11 +310,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="50063616"/>
-        <c:axId val="50065408"/>
+        <c:axId val="80525184"/>
+        <c:axId val="80535936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50063616"/>
+        <c:axId val="80525184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,14 +339,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50065408"/>
+        <c:crossAx val="80535936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50065408"/>
+        <c:axId val="80535936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +372,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50063616"/>
+        <c:crossAx val="80525184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -394,7 +394,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -534,11 +534,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54723712"/>
-        <c:axId val="54725248"/>
+        <c:axId val="80543104"/>
+        <c:axId val="80578432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54723712"/>
+        <c:axId val="80543104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,14 +563,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54725248"/>
+        <c:crossAx val="80578432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54725248"/>
+        <c:axId val="80578432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +596,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54723712"/>
+        <c:crossAx val="80543104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -618,7 +618,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -753,11 +753,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95334400"/>
-        <c:axId val="95337472"/>
+        <c:axId val="80606336"/>
+        <c:axId val="80608640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95334400"/>
+        <c:axId val="80606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,14 +782,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95337472"/>
+        <c:crossAx val="80608640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95337472"/>
+        <c:axId val="80608640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +815,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95334400"/>
+        <c:crossAx val="80606336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -837,7 +837,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1226,16 +1226,16 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1245,24 +1245,24 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       <c r="D6" s="6">
         <v>9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>15</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       <c r="D7" s="6">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>35</v>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="D8" s="6">
         <v>30</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>65</v>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       <c r="D9" s="6">
         <v>23</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>88</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       <c r="D10" s="6">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>95</v>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>99</v>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <v>100</v>
       </c>
     </row>
